--- a/data/pca/factorExposure/factorExposure_2011-11-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01027528332301946</v>
+        <v>0.01171382797318163</v>
       </c>
       <c r="C2">
-        <v>-0.03082659579766921</v>
+        <v>-0.02044748103481615</v>
       </c>
       <c r="D2">
-        <v>-0.01881110120463559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02444750766070445</v>
+      </c>
+      <c r="E2">
+        <v>-0.01072311364862321</v>
+      </c>
+      <c r="F2">
+        <v>-0.02989593849054606</v>
+      </c>
+      <c r="G2">
+        <v>-0.001256537917706392</v>
+      </c>
+      <c r="H2">
+        <v>0.0255837386291297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07325643296991592</v>
+        <v>0.08743632236927357</v>
       </c>
       <c r="C4">
-        <v>-0.06032465823215159</v>
+        <v>-0.02636211019404128</v>
       </c>
       <c r="D4">
-        <v>-0.07102994645666476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07798908165897521</v>
+      </c>
+      <c r="E4">
+        <v>-0.009542101150910084</v>
+      </c>
+      <c r="F4">
+        <v>-0.04169665063405145</v>
+      </c>
+      <c r="G4">
+        <v>0.01872522841538251</v>
+      </c>
+      <c r="H4">
+        <v>-0.03641395757577871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1102346644309418</v>
+        <v>0.1236868299673866</v>
       </c>
       <c r="C6">
-        <v>-0.06480382430821957</v>
+        <v>-0.04512025208452627</v>
       </c>
       <c r="D6">
-        <v>0.003927270276839237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01581035352368801</v>
+      </c>
+      <c r="E6">
+        <v>0.02697895921740704</v>
+      </c>
+      <c r="F6">
+        <v>-0.03745116015898276</v>
+      </c>
+      <c r="G6">
+        <v>0.04406474925884779</v>
+      </c>
+      <c r="H6">
+        <v>0.1561941659013003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05514757948981541</v>
+        <v>0.06479801504710204</v>
       </c>
       <c r="C7">
-        <v>-0.03826875396133497</v>
+        <v>-0.01132110729137549</v>
       </c>
       <c r="D7">
-        <v>-0.03223333185447344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05598415053999147</v>
+      </c>
+      <c r="E7">
+        <v>-0.02667483569046456</v>
+      </c>
+      <c r="F7">
+        <v>-0.04576175696467753</v>
+      </c>
+      <c r="G7">
+        <v>-0.02552803130484952</v>
+      </c>
+      <c r="H7">
+        <v>-0.02627321205229619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04060342071195108</v>
+        <v>0.04394936319483588</v>
       </c>
       <c r="C8">
-        <v>-0.01774337581972229</v>
+        <v>-0.005616897392256849</v>
       </c>
       <c r="D8">
-        <v>-0.06244013905419969</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03121615933272038</v>
+      </c>
+      <c r="E8">
+        <v>-0.006813229255075639</v>
+      </c>
+      <c r="F8">
+        <v>-0.07350709629792582</v>
+      </c>
+      <c r="G8">
+        <v>0.08418285280598364</v>
+      </c>
+      <c r="H8">
+        <v>0.007340747212167309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07059131760142254</v>
+        <v>0.080043140431206</v>
       </c>
       <c r="C9">
-        <v>-0.04691694218436068</v>
+        <v>-0.01501361557734284</v>
       </c>
       <c r="D9">
-        <v>-0.06712264477527949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06933930775115574</v>
+      </c>
+      <c r="E9">
+        <v>-0.02343053503689753</v>
+      </c>
+      <c r="F9">
+        <v>-0.03674442131360512</v>
+      </c>
+      <c r="G9">
+        <v>0.0293397560992888</v>
+      </c>
+      <c r="H9">
+        <v>-0.04111219331254146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02355624141165506</v>
+        <v>0.04612781727882774</v>
       </c>
       <c r="C10">
-        <v>-0.01721306930763683</v>
+        <v>-0.09018728577934601</v>
       </c>
       <c r="D10">
-        <v>0.1694779366956992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1643638004407301</v>
+      </c>
+      <c r="E10">
+        <v>-0.03048628537694847</v>
+      </c>
+      <c r="F10">
+        <v>-0.0604186415359032</v>
+      </c>
+      <c r="G10">
+        <v>-0.03848406688627981</v>
+      </c>
+      <c r="H10">
+        <v>0.04021352769774738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0671016216350756</v>
+        <v>0.07355574809950549</v>
       </c>
       <c r="C11">
-        <v>-0.04364232320365237</v>
+        <v>-0.00933169399743445</v>
       </c>
       <c r="D11">
-        <v>-0.05555861707415774</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0638792284710146</v>
+      </c>
+      <c r="E11">
+        <v>0.001818842039012784</v>
+      </c>
+      <c r="F11">
+        <v>-0.03508035939012755</v>
+      </c>
+      <c r="G11">
+        <v>0.04517156340175444</v>
+      </c>
+      <c r="H11">
+        <v>-0.06384291611294443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05725340030583261</v>
+        <v>0.06701807949988979</v>
       </c>
       <c r="C12">
-        <v>-0.05303784558886657</v>
+        <v>-0.02218129685734649</v>
       </c>
       <c r="D12">
-        <v>-0.04641310345893283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05612631428904896</v>
+      </c>
+      <c r="E12">
+        <v>-0.009792313983610357</v>
+      </c>
+      <c r="F12">
+        <v>-0.02428884315018175</v>
+      </c>
+      <c r="G12">
+        <v>0.02095962693923835</v>
+      </c>
+      <c r="H12">
+        <v>-0.03010943467429377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06947901034231489</v>
+        <v>0.07068464541223625</v>
       </c>
       <c r="C13">
-        <v>-0.05187988579845351</v>
+        <v>-0.02202964400658099</v>
       </c>
       <c r="D13">
-        <v>-0.03410278782693337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04392034916299262</v>
+      </c>
+      <c r="E13">
+        <v>-0.005382391641080913</v>
+      </c>
+      <c r="F13">
+        <v>-0.02171779715803625</v>
+      </c>
+      <c r="G13">
+        <v>0.02465096949287571</v>
+      </c>
+      <c r="H13">
+        <v>-0.0524641458256733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03025742612592729</v>
+        <v>0.03963221261631439</v>
       </c>
       <c r="C14">
-        <v>-0.03135437115618875</v>
+        <v>-0.02487555797820523</v>
       </c>
       <c r="D14">
-        <v>0.00833826785344929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01837340227649099</v>
+      </c>
+      <c r="E14">
+        <v>-0.02384146152940783</v>
+      </c>
+      <c r="F14">
+        <v>-0.01599925771416051</v>
+      </c>
+      <c r="G14">
+        <v>0.01730607612903937</v>
+      </c>
+      <c r="H14">
+        <v>-0.06642275757985211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04181457065838933</v>
+        <v>0.04118680426360988</v>
       </c>
       <c r="C15">
-        <v>-0.01469269333087287</v>
+        <v>-0.003786800033084078</v>
       </c>
       <c r="D15">
-        <v>-0.02090046378896988</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01020420822800925</v>
+      </c>
+      <c r="E15">
+        <v>-0.0350145782866735</v>
+      </c>
+      <c r="F15">
+        <v>-0.003644548040752152</v>
+      </c>
+      <c r="G15">
+        <v>0.0323132105361371</v>
+      </c>
+      <c r="H15">
+        <v>-0.02798554384753173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05668075438147721</v>
+        <v>0.06931203086762928</v>
       </c>
       <c r="C16">
-        <v>-0.04135970410445598</v>
+        <v>-0.01229495208382626</v>
       </c>
       <c r="D16">
-        <v>-0.05547280870316033</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06558208997364673</v>
+      </c>
+      <c r="E16">
+        <v>-0.004216132655090216</v>
+      </c>
+      <c r="F16">
+        <v>-0.03059635044025753</v>
+      </c>
+      <c r="G16">
+        <v>0.01867334870005109</v>
+      </c>
+      <c r="H16">
+        <v>-0.04862571868773886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06387416225268924</v>
+        <v>0.06305510749914879</v>
       </c>
       <c r="C20">
-        <v>-0.03038696638952112</v>
+        <v>-0.0004884995846808109</v>
       </c>
       <c r="D20">
-        <v>-0.04441890926058474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04254389554340773</v>
+      </c>
+      <c r="E20">
+        <v>-0.003822143425700376</v>
+      </c>
+      <c r="F20">
+        <v>-0.02495754130455686</v>
+      </c>
+      <c r="G20">
+        <v>0.01802954705893526</v>
+      </c>
+      <c r="H20">
+        <v>-0.04496520254454344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03304904302288424</v>
+        <v>0.02916287277955357</v>
       </c>
       <c r="C21">
-        <v>-0.01093924488595061</v>
+        <v>0.004752945214038556</v>
       </c>
       <c r="D21">
-        <v>-0.01090852569919004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01884686856623519</v>
+      </c>
+      <c r="E21">
+        <v>-0.03950518194051484</v>
+      </c>
+      <c r="F21">
+        <v>0.01324424035756504</v>
+      </c>
+      <c r="G21">
+        <v>0.01096511640870587</v>
+      </c>
+      <c r="H21">
+        <v>0.03976558218464487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08043058586434045</v>
+        <v>0.07082040030132432</v>
       </c>
       <c r="C22">
-        <v>-0.0718883270252957</v>
+        <v>-0.01348404676926088</v>
       </c>
       <c r="D22">
-        <v>-0.1487251342941794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1083512750896735</v>
+      </c>
+      <c r="E22">
+        <v>-0.6111402375772278</v>
+      </c>
+      <c r="F22">
+        <v>0.03369547712099385</v>
+      </c>
+      <c r="G22">
+        <v>-0.1745306184312225</v>
+      </c>
+      <c r="H22">
+        <v>0.1391329332961927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08152976949159332</v>
+        <v>0.07177198222229118</v>
       </c>
       <c r="C23">
-        <v>-0.07035898478135653</v>
+        <v>-0.01181762902909095</v>
       </c>
       <c r="D23">
-        <v>-0.1500169636746374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1090911537919374</v>
+      </c>
+      <c r="E23">
+        <v>-0.6132850239240173</v>
+      </c>
+      <c r="F23">
+        <v>0.03291087441145837</v>
+      </c>
+      <c r="G23">
+        <v>-0.1691104802008879</v>
+      </c>
+      <c r="H23">
+        <v>0.1348405635823956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07263666666284493</v>
+        <v>0.07910936116652545</v>
       </c>
       <c r="C24">
-        <v>-0.05272046021883392</v>
+        <v>-0.01668358063248023</v>
       </c>
       <c r="D24">
-        <v>-0.05933750481167643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06505562763301342</v>
+      </c>
+      <c r="E24">
+        <v>-0.01168215072001066</v>
+      </c>
+      <c r="F24">
+        <v>-0.03712113532471612</v>
+      </c>
+      <c r="G24">
+        <v>0.03782871438249608</v>
+      </c>
+      <c r="H24">
+        <v>-0.02976315682206306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07208476173866571</v>
+        <v>0.07815124632987293</v>
       </c>
       <c r="C25">
-        <v>-0.05623277787154293</v>
+        <v>-0.02241594756351183</v>
       </c>
       <c r="D25">
-        <v>-0.0555205062989753</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05857888222908907</v>
+      </c>
+      <c r="E25">
+        <v>-0.01246730533649939</v>
+      </c>
+      <c r="F25">
+        <v>-0.03434790313644323</v>
+      </c>
+      <c r="G25">
+        <v>0.04431519679250517</v>
+      </c>
+      <c r="H25">
+        <v>-0.04284849616600241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04424390982700108</v>
+        <v>0.04384080077885894</v>
       </c>
       <c r="C26">
-        <v>-0.01519562705301193</v>
+        <v>0.001591676949322949</v>
       </c>
       <c r="D26">
-        <v>-0.01101969249865689</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02100658737654488</v>
+      </c>
+      <c r="E26">
+        <v>-0.04113491323657121</v>
+      </c>
+      <c r="F26">
+        <v>-0.02809591095074362</v>
+      </c>
+      <c r="G26">
+        <v>0.02778208585230975</v>
+      </c>
+      <c r="H26">
+        <v>-0.0433085994491643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.03900812724473491</v>
+        <v>0.06762715024968459</v>
       </c>
       <c r="C28">
-        <v>-0.0544879131320443</v>
+        <v>-0.1618668402601336</v>
       </c>
       <c r="D28">
-        <v>0.309424179402101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2752427557596488</v>
+      </c>
+      <c r="E28">
+        <v>-0.04194124000016439</v>
+      </c>
+      <c r="F28">
+        <v>-0.05374236093438967</v>
+      </c>
+      <c r="G28">
+        <v>0.02330402806653942</v>
+      </c>
+      <c r="H28">
+        <v>0.05946642256394091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04406876229487475</v>
+        <v>0.04775577664003025</v>
       </c>
       <c r="C29">
-        <v>-0.04059702474052386</v>
+        <v>-0.02695702535335034</v>
       </c>
       <c r="D29">
-        <v>0.0007376445308871049</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02025474563592918</v>
+      </c>
+      <c r="E29">
+        <v>-0.05190698998374596</v>
+      </c>
+      <c r="F29">
+        <v>-0.01953613064578912</v>
+      </c>
+      <c r="G29">
+        <v>0.004195617628963585</v>
+      </c>
+      <c r="H29">
+        <v>-0.08581640324249053</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1292754681074173</v>
+        <v>0.1260361761461933</v>
       </c>
       <c r="C30">
-        <v>-0.1018880770014801</v>
+        <v>-0.04119679980491268</v>
       </c>
       <c r="D30">
-        <v>-0.1110152807014188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09453026974707854</v>
+      </c>
+      <c r="E30">
+        <v>-0.05589459901955489</v>
+      </c>
+      <c r="F30">
+        <v>-0.01697958313814116</v>
+      </c>
+      <c r="G30">
+        <v>0.07033052071624016</v>
+      </c>
+      <c r="H30">
+        <v>0.0389476735786098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0487288774943988</v>
+        <v>0.04965187960659472</v>
       </c>
       <c r="C31">
-        <v>-0.02672166530643734</v>
+        <v>-0.00452001580618631</v>
       </c>
       <c r="D31">
-        <v>-0.01843626541437021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03583446164003965</v>
+      </c>
+      <c r="E31">
+        <v>-0.02169658756679042</v>
+      </c>
+      <c r="F31">
+        <v>-0.01083813007663005</v>
+      </c>
+      <c r="G31">
+        <v>-0.001518663150275897</v>
+      </c>
+      <c r="H31">
+        <v>-0.06604519677283359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03461535248755206</v>
+        <v>0.03698136329998637</v>
       </c>
       <c r="C32">
-        <v>-0.02525979425286496</v>
+        <v>-0.01899845703755232</v>
       </c>
       <c r="D32">
-        <v>-0.03136281289014871</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01442397704013494</v>
+      </c>
+      <c r="E32">
+        <v>-0.04258676481741774</v>
+      </c>
+      <c r="F32">
+        <v>0.001116546430597519</v>
+      </c>
+      <c r="G32">
+        <v>0.04908285729624599</v>
+      </c>
+      <c r="H32">
+        <v>-0.01149069024531254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08438477346975684</v>
+        <v>0.09386851054299408</v>
       </c>
       <c r="C33">
-        <v>-0.04764065967600431</v>
+        <v>-0.01426244256049852</v>
       </c>
       <c r="D33">
-        <v>-0.04589417956971954</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05434679056577119</v>
+      </c>
+      <c r="E33">
+        <v>-0.0106566837796261</v>
+      </c>
+      <c r="F33">
+        <v>-0.002113365593429639</v>
+      </c>
+      <c r="G33">
+        <v>0.008286094334984432</v>
+      </c>
+      <c r="H33">
+        <v>-0.0622658259420705</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05820360972063173</v>
+        <v>0.06705365249377629</v>
       </c>
       <c r="C34">
-        <v>-0.02991074081907056</v>
+        <v>-0.0045638268175131</v>
       </c>
       <c r="D34">
-        <v>-0.04970277806190904</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0478880536030763</v>
+      </c>
+      <c r="E34">
+        <v>-0.009248855231596527</v>
+      </c>
+      <c r="F34">
+        <v>-0.02012475735668269</v>
+      </c>
+      <c r="G34">
+        <v>0.02789016011316379</v>
+      </c>
+      <c r="H34">
+        <v>-0.05171307398379452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03541118438197752</v>
+        <v>0.03748192068324113</v>
       </c>
       <c r="C35">
-        <v>-0.01454097295212981</v>
+        <v>-0.003098940873780345</v>
       </c>
       <c r="D35">
-        <v>-0.01978934985855651</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01908714940239625</v>
+      </c>
+      <c r="E35">
+        <v>-0.02281076658167322</v>
+      </c>
+      <c r="F35">
+        <v>0.01557428214896926</v>
+      </c>
+      <c r="G35">
+        <v>-0.003577143227178795</v>
+      </c>
+      <c r="H35">
+        <v>-0.03583702358048455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02604631720356106</v>
+        <v>0.02774805862906517</v>
       </c>
       <c r="C36">
-        <v>-0.0207486692050894</v>
+        <v>-0.008669218247104754</v>
       </c>
       <c r="D36">
-        <v>-0.02007672633361897</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02131157961622376</v>
+      </c>
+      <c r="E36">
+        <v>-0.0320144030957179</v>
+      </c>
+      <c r="F36">
+        <v>-0.02759903728264684</v>
+      </c>
+      <c r="G36">
+        <v>0.01419604412999981</v>
+      </c>
+      <c r="H36">
+        <v>-0.04227119941163721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05070997820350983</v>
+        <v>0.0481039749147327</v>
       </c>
       <c r="C38">
-        <v>-0.01157953008454482</v>
+        <v>0.007224579434524919</v>
       </c>
       <c r="D38">
-        <v>-0.007151569826758774</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02174017627173102</v>
+      </c>
+      <c r="E38">
+        <v>-0.04912132842871602</v>
+      </c>
+      <c r="F38">
+        <v>0.0003433482021382093</v>
+      </c>
+      <c r="G38">
+        <v>0.003826995672153536</v>
+      </c>
+      <c r="H38">
+        <v>-0.02687611766460135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08954530700741729</v>
+        <v>0.1008405022487537</v>
       </c>
       <c r="C39">
-        <v>-0.07524644001849186</v>
+        <v>-0.03674966358113171</v>
       </c>
       <c r="D39">
-        <v>-0.04730058070517468</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07176591176092591</v>
+      </c>
+      <c r="E39">
+        <v>-0.004392075338500767</v>
+      </c>
+      <c r="F39">
+        <v>-0.003198839015934361</v>
+      </c>
+      <c r="G39">
+        <v>0.04851632310083714</v>
+      </c>
+      <c r="H39">
+        <v>-0.02643803220183607</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07964760831430713</v>
+        <v>0.06127208337751743</v>
       </c>
       <c r="C40">
-        <v>-0.0407871909261631</v>
+        <v>0.004032972200473241</v>
       </c>
       <c r="D40">
-        <v>-0.0131698541423084</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03515370587395805</v>
+      </c>
+      <c r="E40">
+        <v>-0.04018701629340679</v>
+      </c>
+      <c r="F40">
+        <v>0.03684427480711173</v>
+      </c>
+      <c r="G40">
+        <v>0.06203042018901646</v>
+      </c>
+      <c r="H40">
+        <v>0.07015170086246479</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04582689246383448</v>
+        <v>0.04669220242152145</v>
       </c>
       <c r="C41">
-        <v>-0.02021357949847439</v>
+        <v>0.001982985730623798</v>
       </c>
       <c r="D41">
-        <v>-0.03359125070823338</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03332990062859344</v>
+      </c>
+      <c r="E41">
+        <v>-0.0008211535195444676</v>
+      </c>
+      <c r="F41">
+        <v>0.01379517345676422</v>
+      </c>
+      <c r="G41">
+        <v>0.007217625894908777</v>
+      </c>
+      <c r="H41">
+        <v>-0.03150948003130317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05386586146534361</v>
+        <v>0.06017161133212513</v>
       </c>
       <c r="C43">
-        <v>-0.03299746546123927</v>
+        <v>-0.01281482503023116</v>
       </c>
       <c r="D43">
-        <v>-0.007457801032151075</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0333967432100112</v>
+      </c>
+      <c r="E43">
+        <v>-0.01699906111414497</v>
+      </c>
+      <c r="F43">
+        <v>-0.01361466698964345</v>
+      </c>
+      <c r="G43">
+        <v>-0.01598151278566459</v>
+      </c>
+      <c r="H43">
+        <v>-0.06206516946875403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09781545829936572</v>
+        <v>0.09534805723873895</v>
       </c>
       <c r="C44">
-        <v>-0.03629732299797114</v>
+        <v>0.002463850986894054</v>
       </c>
       <c r="D44">
-        <v>-0.04758504925425199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05359459920307592</v>
+      </c>
+      <c r="E44">
+        <v>-0.07394168771081056</v>
+      </c>
+      <c r="F44">
+        <v>-0.08077375307609219</v>
+      </c>
+      <c r="G44">
+        <v>0.07110459178569301</v>
+      </c>
+      <c r="H44">
+        <v>-0.04876824014895109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02451225125315417</v>
+        <v>0.03554617673656427</v>
       </c>
       <c r="C46">
-        <v>-0.02364555358916229</v>
+        <v>-0.01085533428134088</v>
       </c>
       <c r="D46">
-        <v>-0.03283253196209354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.04192479056840227</v>
+      </c>
+      <c r="E46">
+        <v>-0.02792215124959127</v>
+      </c>
+      <c r="F46">
+        <v>-0.01742665516339062</v>
+      </c>
+      <c r="G46">
+        <v>-0.005295253346190429</v>
+      </c>
+      <c r="H46">
+        <v>-0.03597611021644307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03107434409532832</v>
+        <v>0.04019569997919775</v>
       </c>
       <c r="C47">
-        <v>-0.02392010605620267</v>
+        <v>-0.01762773126786128</v>
       </c>
       <c r="D47">
-        <v>0.00420064193355938</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01379813925269629</v>
+      </c>
+      <c r="E47">
+        <v>-0.03833366460467196</v>
+      </c>
+      <c r="F47">
+        <v>0.004828289790837484</v>
+      </c>
+      <c r="G47">
+        <v>-0.02825954315858898</v>
+      </c>
+      <c r="H47">
+        <v>-0.03568146954730003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03645471798516397</v>
+        <v>0.03972661079543411</v>
       </c>
       <c r="C48">
-        <v>-0.02858773657660863</v>
+        <v>-0.0122487849213558</v>
       </c>
       <c r="D48">
-        <v>-0.02859668688106383</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02355360808168973</v>
+      </c>
+      <c r="E48">
+        <v>-0.04030198014493113</v>
+      </c>
+      <c r="F48">
+        <v>-0.007397273200128331</v>
+      </c>
+      <c r="G48">
+        <v>0.0222212627308569</v>
+      </c>
+      <c r="H48">
+        <v>-0.02346176712128594</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1620565490031278</v>
+        <v>0.1975488893374018</v>
       </c>
       <c r="C49">
-        <v>-0.05580763751052546</v>
+        <v>-0.03418978190355559</v>
       </c>
       <c r="D49">
-        <v>-0.002810420483363075</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02958332289061861</v>
+      </c>
+      <c r="E49">
+        <v>0.1731158585837075</v>
+      </c>
+      <c r="F49">
+        <v>-0.02925156929161349</v>
+      </c>
+      <c r="G49">
+        <v>-0.1450321221023768</v>
+      </c>
+      <c r="H49">
+        <v>0.2277271140551739</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04375017986313352</v>
+        <v>0.04571919617373</v>
       </c>
       <c r="C50">
-        <v>-0.02687786715715494</v>
+        <v>-0.005174342781527108</v>
       </c>
       <c r="D50">
-        <v>-0.03338645440817239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.04062766924356886</v>
+      </c>
+      <c r="E50">
+        <v>-0.02889093374601822</v>
+      </c>
+      <c r="F50">
+        <v>-0.005724155938689277</v>
+      </c>
+      <c r="G50">
+        <v>-0.002203802320581995</v>
+      </c>
+      <c r="H50">
+        <v>-0.07094444664480544</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02410907177835515</v>
+        <v>0.03393412124309072</v>
       </c>
       <c r="C51">
-        <v>-0.005736196869714169</v>
+        <v>-0.00458488547502818</v>
       </c>
       <c r="D51">
-        <v>0.002783178805380209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.002489863272789915</v>
+      </c>
+      <c r="E51">
+        <v>-0.007851959653639775</v>
+      </c>
+      <c r="F51">
+        <v>-0.01161492425054295</v>
+      </c>
+      <c r="G51">
+        <v>-0.01878802482064379</v>
+      </c>
+      <c r="H51">
+        <v>0.020023638289538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1500860558082501</v>
+        <v>0.1599789878679041</v>
       </c>
       <c r="C53">
-        <v>-0.0850008572248669</v>
+        <v>-0.04958027536066448</v>
       </c>
       <c r="D53">
-        <v>0.008735794058261741</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03158464999394513</v>
+      </c>
+      <c r="E53">
+        <v>0.03311173776476873</v>
+      </c>
+      <c r="F53">
+        <v>-0.002103885734980375</v>
+      </c>
+      <c r="G53">
+        <v>-0.007479480161097832</v>
+      </c>
+      <c r="H53">
+        <v>-0.1987170534512434</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0575726169023735</v>
+        <v>0.05805718824421315</v>
       </c>
       <c r="C54">
-        <v>-0.03365083205217157</v>
+        <v>-0.01639911563986735</v>
       </c>
       <c r="D54">
-        <v>-0.01824613389277416</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01961215924669608</v>
+      </c>
+      <c r="E54">
+        <v>-0.05214377086268902</v>
+      </c>
+      <c r="F54">
+        <v>-0.01985790631057103</v>
+      </c>
+      <c r="G54">
+        <v>0.05349453550531522</v>
+      </c>
+      <c r="H54">
+        <v>-0.04577668597090748</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09738209783573709</v>
+        <v>0.1006502727823765</v>
       </c>
       <c r="C55">
-        <v>-0.05458488992825646</v>
+        <v>-0.02558130132250951</v>
       </c>
       <c r="D55">
-        <v>-0.009117396789692886</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03300292549974782</v>
+      </c>
+      <c r="E55">
+        <v>0.003689528083637099</v>
+      </c>
+      <c r="F55">
+        <v>-0.02149515910434655</v>
+      </c>
+      <c r="G55">
+        <v>0.01385519950333711</v>
+      </c>
+      <c r="H55">
+        <v>-0.1544958202260376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1462044592265553</v>
+        <v>0.1546501935371877</v>
       </c>
       <c r="C56">
-        <v>-0.08840923060903705</v>
+        <v>-0.04384533348132266</v>
       </c>
       <c r="D56">
-        <v>0.005222082398060567</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05036962789751318</v>
+      </c>
+      <c r="E56">
+        <v>0.01636231819375518</v>
+      </c>
+      <c r="F56">
+        <v>-0.02524246705585022</v>
+      </c>
+      <c r="G56">
+        <v>0.004090317516615577</v>
+      </c>
+      <c r="H56">
+        <v>-0.2044930134767747</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1321805284266599</v>
+        <v>0.09924876531221238</v>
       </c>
       <c r="C58">
-        <v>0.01714556954499087</v>
+        <v>0.07036535971861851</v>
       </c>
       <c r="D58">
-        <v>-0.05039296517819739</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01609166182134547</v>
+      </c>
+      <c r="E58">
+        <v>-0.1200708861966895</v>
+      </c>
+      <c r="F58">
+        <v>-0.03399955561851633</v>
+      </c>
+      <c r="G58">
+        <v>-0.07213986878588539</v>
+      </c>
+      <c r="H58">
+        <v>0.1768553655663439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.115304285534807</v>
+        <v>0.1464660799074925</v>
       </c>
       <c r="C59">
-        <v>-0.06815465157758739</v>
+        <v>-0.1789185210496928</v>
       </c>
       <c r="D59">
-        <v>0.409373735899383</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3264777902625285</v>
+      </c>
+      <c r="E59">
+        <v>-0.03347115427794976</v>
+      </c>
+      <c r="F59">
+        <v>-0.006495137779295509</v>
+      </c>
+      <c r="G59">
+        <v>0.008272260684275713</v>
+      </c>
+      <c r="H59">
+        <v>-0.02024875620317718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2052239668814382</v>
+        <v>0.2381774346976417</v>
       </c>
       <c r="C60">
-        <v>-0.1046362719293777</v>
+        <v>-0.06189107558842126</v>
       </c>
       <c r="D60">
-        <v>6.285898966628542e-05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.05396739984567131</v>
+      </c>
+      <c r="E60">
+        <v>0.114957442099673</v>
+      </c>
+      <c r="F60">
+        <v>-0.03936950602794023</v>
+      </c>
+      <c r="G60">
+        <v>-0.02849076283326785</v>
+      </c>
+      <c r="H60">
+        <v>0.1567645397329012</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07762505585777413</v>
+        <v>0.08545098849245999</v>
       </c>
       <c r="C61">
-        <v>-0.04973803072156819</v>
+        <v>-0.02166432704325137</v>
       </c>
       <c r="D61">
-        <v>-0.03019282206035003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04847721011416271</v>
+      </c>
+      <c r="E61">
+        <v>-0.007229018639664114</v>
+      </c>
+      <c r="F61">
+        <v>-0.01420827567613377</v>
+      </c>
+      <c r="G61">
+        <v>0.03123026122577215</v>
+      </c>
+      <c r="H61">
+        <v>-0.0662096413087183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1314467401267423</v>
+        <v>0.1365338413058975</v>
       </c>
       <c r="C62">
-        <v>-0.05710540827605524</v>
+        <v>-0.016582861878595</v>
       </c>
       <c r="D62">
-        <v>0.01060549735745251</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04374101794098163</v>
+      </c>
+      <c r="E62">
+        <v>0.04780520616983579</v>
+      </c>
+      <c r="F62">
+        <v>0.0226678452087606</v>
+      </c>
+      <c r="G62">
+        <v>0.02979758249027801</v>
+      </c>
+      <c r="H62">
+        <v>-0.1933451870817892</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04964493706818264</v>
+        <v>0.04764431406644237</v>
       </c>
       <c r="C63">
-        <v>-0.02596900542624324</v>
+        <v>-0.007458163721998618</v>
       </c>
       <c r="D63">
-        <v>-0.02774763361353936</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02634654380056577</v>
+      </c>
+      <c r="E63">
+        <v>-0.04133489889192828</v>
+      </c>
+      <c r="F63">
+        <v>-0.0003094718692868112</v>
+      </c>
+      <c r="G63">
+        <v>0.03571787655196172</v>
+      </c>
+      <c r="H63">
+        <v>-0.03305581707553426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1066597500405887</v>
+        <v>0.1107214666310278</v>
       </c>
       <c r="C64">
-        <v>-0.04611313849227564</v>
+        <v>-0.0198895328475249</v>
       </c>
       <c r="D64">
-        <v>-0.01622576793985886</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02872770487341787</v>
+      </c>
+      <c r="E64">
+        <v>-0.03965586265500766</v>
+      </c>
+      <c r="F64">
+        <v>-0.04928369017884622</v>
+      </c>
+      <c r="G64">
+        <v>0.0578545357388173</v>
+      </c>
+      <c r="H64">
+        <v>-0.02570121601411271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1256033226191746</v>
+        <v>0.1312702108167382</v>
       </c>
       <c r="C65">
-        <v>-0.06994749721607087</v>
+        <v>-0.04749467364103127</v>
       </c>
       <c r="D65">
-        <v>-0.003690899408251664</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01825136109137845</v>
+      </c>
+      <c r="E65">
+        <v>0.004609766096650481</v>
+      </c>
+      <c r="F65">
+        <v>-0.02368710909031884</v>
+      </c>
+      <c r="G65">
+        <v>0.06554489145665258</v>
+      </c>
+      <c r="H65">
+        <v>0.1832845693966437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1481562058592219</v>
+        <v>0.1527419033989258</v>
       </c>
       <c r="C66">
-        <v>-0.08903895946354079</v>
+        <v>-0.02485093974419886</v>
       </c>
       <c r="D66">
-        <v>-0.09091666406684509</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1097418211309579</v>
+      </c>
+      <c r="E66">
+        <v>0.02573176601884682</v>
+      </c>
+      <c r="F66">
+        <v>-0.005752464293691688</v>
+      </c>
+      <c r="G66">
+        <v>0.07336844674012548</v>
+      </c>
+      <c r="H66">
+        <v>-0.09371864798518958</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07893820631846118</v>
+        <v>0.08678086985646029</v>
       </c>
       <c r="C67">
-        <v>-0.0187292189021133</v>
+        <v>0.003554578579253196</v>
       </c>
       <c r="D67">
-        <v>-0.01610677143265479</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03424740053018042</v>
+      </c>
+      <c r="E67">
+        <v>-0.01964057776476684</v>
+      </c>
+      <c r="F67">
+        <v>-0.01603772707433989</v>
+      </c>
+      <c r="G67">
+        <v>-0.01229229278072945</v>
+      </c>
+      <c r="H67">
+        <v>-0.02410609222682677</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04912417620624619</v>
+        <v>0.06195694411766563</v>
       </c>
       <c r="C68">
-        <v>-0.03857295390946134</v>
+        <v>-0.1296681418819794</v>
       </c>
       <c r="D68">
-        <v>0.2615916339180078</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2480183555376501</v>
+      </c>
+      <c r="E68">
+        <v>-0.04678961303867783</v>
+      </c>
+      <c r="F68">
+        <v>-0.01115894898796931</v>
+      </c>
+      <c r="G68">
+        <v>-0.0008759500450487823</v>
+      </c>
+      <c r="H68">
+        <v>-0.01275857529630129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.053988085562518</v>
+        <v>0.05261019314239182</v>
       </c>
       <c r="C69">
-        <v>-0.02395991202171763</v>
+        <v>-0.002802761617149967</v>
       </c>
       <c r="D69">
-        <v>-0.02071541322228669</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02235707190962088</v>
+      </c>
+      <c r="E69">
+        <v>-0.02244219685622557</v>
+      </c>
+      <c r="F69">
+        <v>0.01150351286601551</v>
+      </c>
+      <c r="G69">
+        <v>-0.0002602612329653754</v>
+      </c>
+      <c r="H69">
+        <v>-0.04809781423800949</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.006522647523214126</v>
+        <v>0.03079647981206882</v>
       </c>
       <c r="C70">
-        <v>0.001693229874744847</v>
+        <v>-0.004732916583795376</v>
       </c>
       <c r="D70">
-        <v>0.01085313938849938</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.005171327506293263</v>
+      </c>
+      <c r="E70">
+        <v>0.02472665816978314</v>
+      </c>
+      <c r="F70">
+        <v>0.007298017912078809</v>
+      </c>
+      <c r="G70">
+        <v>-0.02637174359973243</v>
+      </c>
+      <c r="H70">
+        <v>0.03002795096921652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04556705016687006</v>
+        <v>0.06681858300359404</v>
       </c>
       <c r="C71">
-        <v>-0.03583865079051735</v>
+        <v>-0.1430221119965033</v>
       </c>
       <c r="D71">
-        <v>0.2913595512083098</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2701524004298672</v>
+      </c>
+      <c r="E71">
+        <v>-0.04462193763678532</v>
+      </c>
+      <c r="F71">
+        <v>-0.0399851810203832</v>
+      </c>
+      <c r="G71">
+        <v>-0.003167396361704224</v>
+      </c>
+      <c r="H71">
+        <v>-0.01210640230440533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1365884099981842</v>
+        <v>0.1416184761623854</v>
       </c>
       <c r="C72">
-        <v>-0.06433306351785995</v>
+        <v>-0.03259460821918003</v>
       </c>
       <c r="D72">
-        <v>0.01664965983482776</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008177545070362249</v>
+      </c>
+      <c r="E72">
+        <v>0.03753654087464604</v>
+      </c>
+      <c r="F72">
+        <v>0.165439699599617</v>
+      </c>
+      <c r="G72">
+        <v>0.1094867130488122</v>
+      </c>
+      <c r="H72">
+        <v>0.01036403314372558</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2811967751032114</v>
+        <v>0.2847739472943633</v>
       </c>
       <c r="C73">
-        <v>-0.1008720117249138</v>
+        <v>-0.003731389645521238</v>
       </c>
       <c r="D73">
-        <v>-0.04136215548511433</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09721085585529919</v>
+      </c>
+      <c r="E73">
+        <v>0.2649624903253383</v>
+      </c>
+      <c r="F73">
+        <v>-0.05360809226080073</v>
+      </c>
+      <c r="G73">
+        <v>-0.2542483290318883</v>
+      </c>
+      <c r="H73">
+        <v>0.3987104293890127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0759171091100517</v>
+        <v>0.0885157693611527</v>
       </c>
       <c r="C74">
-        <v>-0.07351586892278567</v>
+        <v>-0.04364912021928277</v>
       </c>
       <c r="D74">
-        <v>-0.006475766650218527</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05164542300380098</v>
+      </c>
+      <c r="E74">
+        <v>0.007592123509516452</v>
+      </c>
+      <c r="F74">
+        <v>-0.003290605334320205</v>
+      </c>
+      <c r="G74">
+        <v>-0.03583714977297793</v>
+      </c>
+      <c r="H74">
+        <v>-0.1340704786495842</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1000666157939914</v>
+        <v>0.1021984556950726</v>
       </c>
       <c r="C75">
-        <v>-0.05383508380249551</v>
+        <v>-0.01743866250148727</v>
       </c>
       <c r="D75">
-        <v>-0.002571612752372135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02958190307394302</v>
+      </c>
+      <c r="E75">
+        <v>4.250234036292089e-05</v>
+      </c>
+      <c r="F75">
+        <v>-0.0008156858699646291</v>
+      </c>
+      <c r="G75">
+        <v>-0.01001778571022739</v>
+      </c>
+      <c r="H75">
+        <v>-0.09978740211910474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1261564650920908</v>
+        <v>0.1373316630260491</v>
       </c>
       <c r="C76">
-        <v>-0.07616752949705376</v>
+        <v>-0.0348983629174894</v>
       </c>
       <c r="D76">
-        <v>-0.01971146206974042</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06344740155140696</v>
+      </c>
+      <c r="E76">
+        <v>-0.002357891065850742</v>
+      </c>
+      <c r="F76">
+        <v>-0.03700096072622665</v>
+      </c>
+      <c r="G76">
+        <v>0.004589032153664183</v>
+      </c>
+      <c r="H76">
+        <v>-0.2380182885740139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1165712845512591</v>
+        <v>0.09910081176148672</v>
       </c>
       <c r="C77">
-        <v>-0.04178762023389269</v>
+        <v>0.01033893716561822</v>
       </c>
       <c r="D77">
-        <v>-0.07410331442782797</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04476511778988564</v>
+      </c>
+      <c r="E77">
+        <v>-0.04742035111467994</v>
+      </c>
+      <c r="F77">
+        <v>-0.07366552803712685</v>
+      </c>
+      <c r="G77">
+        <v>0.8029822526253839</v>
+      </c>
+      <c r="H77">
+        <v>0.3013130069200988</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1058555509019283</v>
+        <v>0.1520527775863004</v>
       </c>
       <c r="C78">
-        <v>-0.04772099189312132</v>
+        <v>-0.02944224975565226</v>
       </c>
       <c r="D78">
-        <v>-0.08318144475454968</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08383928012950861</v>
+      </c>
+      <c r="E78">
+        <v>-0.05856223398600378</v>
+      </c>
+      <c r="F78">
+        <v>-0.05690444002956114</v>
+      </c>
+      <c r="G78">
+        <v>0.03261001269005043</v>
+      </c>
+      <c r="H78">
+        <v>0.08872349378173607</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1392453257842157</v>
+        <v>0.1444389525491686</v>
       </c>
       <c r="C79">
-        <v>-0.0735676292475838</v>
+        <v>-0.0265865578936224</v>
       </c>
       <c r="D79">
-        <v>-0.0219979113060389</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05247088259262919</v>
+      </c>
+      <c r="E79">
+        <v>0.01884409681860612</v>
+      </c>
+      <c r="F79">
+        <v>-0.0188193701407807</v>
+      </c>
+      <c r="G79">
+        <v>0.02106717761552547</v>
+      </c>
+      <c r="H79">
+        <v>-0.1669579446351736</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04160667633512119</v>
+        <v>0.04204452683448547</v>
       </c>
       <c r="C80">
-        <v>-0.02419514472928123</v>
+        <v>-0.009932786736650307</v>
       </c>
       <c r="D80">
-        <v>-0.02683606583405834</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01902708292578711</v>
+      </c>
+      <c r="E80">
+        <v>0.04302333959354396</v>
+      </c>
+      <c r="F80">
+        <v>-0.005256409637684668</v>
+      </c>
+      <c r="G80">
+        <v>-0.01199968997625413</v>
+      </c>
+      <c r="H80">
+        <v>-0.03334463245679114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1212620635773834</v>
+        <v>0.1253726567351925</v>
       </c>
       <c r="C81">
-        <v>-0.07363227817928579</v>
+        <v>-0.03408134571568523</v>
       </c>
       <c r="D81">
-        <v>-0.01892797358722914</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03928421289525968</v>
+      </c>
+      <c r="E81">
+        <v>-0.005229209258442198</v>
+      </c>
+      <c r="F81">
+        <v>-0.02678764957053633</v>
+      </c>
+      <c r="G81">
+        <v>-0.009109892365478576</v>
+      </c>
+      <c r="H81">
+        <v>-0.1548146773758545</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1281534209402449</v>
+        <v>0.1302157749361871</v>
       </c>
       <c r="C82">
-        <v>-0.07343058605104008</v>
+        <v>-0.03373853550354868</v>
       </c>
       <c r="D82">
-        <v>-0.009306880413366855</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04272263819617504</v>
+      </c>
+      <c r="E82">
+        <v>0.02714462324888449</v>
+      </c>
+      <c r="F82">
+        <v>-0.04227113439004327</v>
+      </c>
+      <c r="G82">
+        <v>-0.007919147814000915</v>
+      </c>
+      <c r="H82">
+        <v>-0.2283145291965398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0649489837011602</v>
+        <v>0.08207868298867688</v>
       </c>
       <c r="C83">
-        <v>0.01326784652201761</v>
+        <v>0.02616105791485679</v>
       </c>
       <c r="D83">
-        <v>-0.02183148074026463</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01614069761508874</v>
+      </c>
+      <c r="E83">
+        <v>-0.01222508617770224</v>
+      </c>
+      <c r="F83">
+        <v>-0.03151095979355764</v>
+      </c>
+      <c r="G83">
+        <v>-0.04119711204738218</v>
+      </c>
+      <c r="H83">
+        <v>0.03241723398871802</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0308270506299222</v>
+        <v>0.03486303109634844</v>
       </c>
       <c r="C84">
-        <v>-0.04087988859509635</v>
+        <v>-0.01617917011033484</v>
       </c>
       <c r="D84">
-        <v>-0.03347232669367689</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.04636565468871603</v>
+      </c>
+      <c r="E84">
+        <v>-0.02116632600149389</v>
+      </c>
+      <c r="F84">
+        <v>0.03889593683775145</v>
+      </c>
+      <c r="G84">
+        <v>-0.02559933905554492</v>
+      </c>
+      <c r="H84">
+        <v>-0.02576246001254005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1150070873008513</v>
+        <v>0.1214755381728446</v>
       </c>
       <c r="C85">
-        <v>-0.04330482311903453</v>
+        <v>-0.007780619891813366</v>
       </c>
       <c r="D85">
-        <v>-0.04687571600758637</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.04471963602033087</v>
+      </c>
+      <c r="E85">
+        <v>-0.01345900878049192</v>
+      </c>
+      <c r="F85">
+        <v>-0.04052563621748866</v>
+      </c>
+      <c r="G85">
+        <v>-0.01056345409075592</v>
+      </c>
+      <c r="H85">
+        <v>-0.1424528953688449</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05041788342342921</v>
+        <v>0.05500464742963545</v>
       </c>
       <c r="C86">
-        <v>-0.02714062635890086</v>
+        <v>-0.003373407979826362</v>
       </c>
       <c r="D86">
-        <v>-0.06543943778472454</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03805822379095501</v>
+      </c>
+      <c r="E86">
+        <v>-0.03640139857878164</v>
+      </c>
+      <c r="F86">
+        <v>-0.02713140395472344</v>
+      </c>
+      <c r="G86">
+        <v>-0.02064553580600362</v>
+      </c>
+      <c r="H86">
+        <v>0.05161455852664919</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1207158007762553</v>
+        <v>0.1242213188369463</v>
       </c>
       <c r="C87">
-        <v>-0.08327561086393555</v>
+        <v>-0.02482791198012824</v>
       </c>
       <c r="D87">
-        <v>-0.06420041179490307</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0787686517254074</v>
+      </c>
+      <c r="E87">
+        <v>-0.02353413097626324</v>
+      </c>
+      <c r="F87">
+        <v>-0.02817621953591923</v>
+      </c>
+      <c r="G87">
+        <v>0.1498230187771497</v>
+      </c>
+      <c r="H87">
+        <v>0.06159274220497012</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05386031843866083</v>
+        <v>0.06381870190617728</v>
       </c>
       <c r="C88">
-        <v>-0.03660889011449903</v>
+        <v>-0.0151684784559079</v>
       </c>
       <c r="D88">
-        <v>-0.02672748504956685</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04578342879840426</v>
+      </c>
+      <c r="E88">
+        <v>-0.002163970041092197</v>
+      </c>
+      <c r="F88">
+        <v>-0.02325943886244254</v>
+      </c>
+      <c r="G88">
+        <v>0.01056852029767413</v>
+      </c>
+      <c r="H88">
+        <v>-0.05010025664658923</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07612048954645485</v>
+        <v>0.1070193528520394</v>
       </c>
       <c r="C89">
-        <v>-0.0601057936961593</v>
+        <v>-0.1837205443633627</v>
       </c>
       <c r="D89">
-        <v>0.3215583086711379</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3145436189996303</v>
+      </c>
+      <c r="E89">
+        <v>-0.0546062302716926</v>
+      </c>
+      <c r="F89">
+        <v>-0.072838943854693</v>
+      </c>
+      <c r="G89">
+        <v>-0.02678357255228319</v>
+      </c>
+      <c r="H89">
+        <v>-0.02877040097498723</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05935636640447998</v>
+        <v>0.08124974639428673</v>
       </c>
       <c r="C90">
-        <v>-0.04341270946364019</v>
+        <v>-0.1416876234993955</v>
       </c>
       <c r="D90">
-        <v>0.2791831455116987</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2598532175494227</v>
+      </c>
+      <c r="E90">
+        <v>-0.05589440689439304</v>
+      </c>
+      <c r="F90">
+        <v>-0.02921042286198862</v>
+      </c>
+      <c r="G90">
+        <v>0.03556027392483181</v>
+      </c>
+      <c r="H90">
+        <v>0.01743416187016434</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08919613729097255</v>
+        <v>0.08989347153267158</v>
       </c>
       <c r="C91">
-        <v>-0.05665108361245418</v>
+        <v>-0.02085610762970067</v>
       </c>
       <c r="D91">
-        <v>-0.01063577286979469</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03806035887743647</v>
+      </c>
+      <c r="E91">
+        <v>-0.004763741386034825</v>
+      </c>
+      <c r="F91">
+        <v>-0.007089926237396064</v>
+      </c>
+      <c r="G91">
+        <v>-0.02155247817868135</v>
+      </c>
+      <c r="H91">
+        <v>-0.09077521253779691</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.06153448587424353</v>
+        <v>0.08234983670363605</v>
       </c>
       <c r="C92">
-        <v>-0.05423825492947707</v>
+        <v>-0.1668608349861254</v>
       </c>
       <c r="D92">
-        <v>0.3337453075479181</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3005123594769466</v>
+      </c>
+      <c r="E92">
+        <v>-0.04705647862800328</v>
+      </c>
+      <c r="F92">
+        <v>-0.0389422994975741</v>
+      </c>
+      <c r="G92">
+        <v>0.00805383411795459</v>
+      </c>
+      <c r="H92">
+        <v>-0.02562297520460474</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05224992058285792</v>
+        <v>0.07849612555730109</v>
       </c>
       <c r="C93">
-        <v>-0.04868350764007579</v>
+        <v>-0.1590275593999615</v>
       </c>
       <c r="D93">
-        <v>0.3029602036315762</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.273805229658798</v>
+      </c>
+      <c r="E93">
+        <v>-0.02650819509786508</v>
+      </c>
+      <c r="F93">
+        <v>-0.02973356066968293</v>
+      </c>
+      <c r="G93">
+        <v>0.01692880985175857</v>
+      </c>
+      <c r="H93">
+        <v>-0.006182646085103865</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1271005327394185</v>
+        <v>0.1255857003379903</v>
       </c>
       <c r="C94">
-        <v>-0.04170230986245152</v>
+        <v>0.002792389422289307</v>
       </c>
       <c r="D94">
-        <v>-0.04382841081759339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04702617717577198</v>
+      </c>
+      <c r="E94">
+        <v>0.02124828726131655</v>
+      </c>
+      <c r="F94">
+        <v>-0.02004287819681939</v>
+      </c>
+      <c r="G94">
+        <v>-0.04019188137507696</v>
+      </c>
+      <c r="H94">
+        <v>-0.1049133031755108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1178655085363694</v>
+        <v>0.1291739736163916</v>
       </c>
       <c r="C95">
-        <v>-0.03533365878484582</v>
+        <v>0.00558911767209855</v>
       </c>
       <c r="D95">
-        <v>-0.05844949246528712</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0626206220305585</v>
+      </c>
+      <c r="E95">
+        <v>-0.0083566703023399</v>
+      </c>
+      <c r="F95">
+        <v>-0.05197125953984543</v>
+      </c>
+      <c r="G95">
+        <v>0.04689254374727543</v>
+      </c>
+      <c r="H95">
+        <v>0.09430697907737008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2235045806695398</v>
+        <v>0.1943001323356163</v>
       </c>
       <c r="C97">
-        <v>-0.05700102664648467</v>
+        <v>0.001428876568297416</v>
       </c>
       <c r="D97">
-        <v>0.118694067341775</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.06046998316752616</v>
+      </c>
+      <c r="E97">
+        <v>0.01677298107011527</v>
+      </c>
+      <c r="F97">
+        <v>0.9380750835449359</v>
+      </c>
+      <c r="G97">
+        <v>0.05938953837153716</v>
+      </c>
+      <c r="H97">
+        <v>0.00741495245298052</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2406289109004197</v>
+        <v>0.2738408919996327</v>
       </c>
       <c r="C98">
-        <v>-0.06913633437181833</v>
+        <v>-0.01898902054001906</v>
       </c>
       <c r="D98">
-        <v>-0.01195113942756251</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04552422285435123</v>
+      </c>
+      <c r="E98">
+        <v>0.2035370071866313</v>
+      </c>
+      <c r="F98">
+        <v>-0.03059547476433651</v>
+      </c>
+      <c r="G98">
+        <v>-0.2988076735920391</v>
+      </c>
+      <c r="H98">
+        <v>0.1859091464304943</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4437954287734173</v>
+        <v>0.2830685871680733</v>
       </c>
       <c r="C99">
-        <v>0.8799094382179441</v>
+        <v>0.863823210442668</v>
       </c>
       <c r="D99">
-        <v>0.02390016990874085</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.3719038040659909</v>
+      </c>
+      <c r="E99">
+        <v>-0.06168167578045794</v>
+      </c>
+      <c r="F99">
+        <v>-0.07923364032623487</v>
+      </c>
+      <c r="G99">
+        <v>0.01317978827716652</v>
+      </c>
+      <c r="H99">
+        <v>-0.06615724206476671</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0441213320409943</v>
+        <v>0.04782599561241672</v>
       </c>
       <c r="C101">
-        <v>-0.04088886986706132</v>
+        <v>-0.02717312891447623</v>
       </c>
       <c r="D101">
-        <v>0.0005563104783186943</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02065066621606305</v>
+      </c>
+      <c r="E101">
+        <v>-0.05166142406113056</v>
+      </c>
+      <c r="F101">
+        <v>-0.01961317713929642</v>
+      </c>
+      <c r="G101">
+        <v>0.00304152143091158</v>
+      </c>
+      <c r="H101">
+        <v>-0.0845454267584317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
